--- a/Gráficas y Tablas/Tablas/Análisis LRMelanoma.xlsx
+++ b/Gráficas y Tablas/Tablas/Análisis LRMelanoma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RNA Cancer\Gráficas y Tablas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Folder\medicalpybrain\Gráficas y Tablas\Tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +668,7 @@
             <c:numRef>
               <c:f>resultsMelanomaLR!$N$5:$N$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
@@ -761,7 +761,7 @@
             <c:numRef>
               <c:f>resultsMelanomaLR!$O$5:$O$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>200</c:v>
@@ -874,7 +874,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1865,7 +1865,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
